--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:05:31+00:00</t>
+    <t>2025-10-15T14:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:54:27+00:00</t>
+    <t>2025-10-15T16:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T16:03:41+00:00</t>
+    <t>2025-10-15T17:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1690,6 +1690,18 @@
     <t>Blood Alcohol Concentration (MDS175)</t>
   </si>
   <si>
+    <t>ph-road-safety-logical-model.oneiss.clinical.otherRiskFactors</t>
+  </si>
+  <si>
+    <t>Other risk factors at time of incident (MDS230)</t>
+  </si>
+  <si>
+    <t>ph-road-safety-logical-model.oneiss.clinical.otherRiskFactorsOther</t>
+  </si>
+  <si>
+    <t>Other risk factors - Others (MDS231)</t>
+  </si>
+  <si>
     <t>ph-road-safety-logical-model.oneiss.incident</t>
   </si>
   <si>
@@ -1778,6 +1790,18 @@
   </si>
   <si>
     <t>Collision vs Non-Collision (MDS163)</t>
+  </si>
+  <si>
+    <t>ph-road-safety-logical-model.oneiss.incident.safetyAccessories</t>
+  </si>
+  <si>
+    <t>Safety accessories (MDS232)</t>
+  </si>
+  <si>
+    <t>ph-road-safety-logical-model.oneiss.incident.safetyAccessoriesOther</t>
+  </si>
+  <si>
+    <t>Safety - Others (MDS233)</t>
   </si>
   <si>
     <t>ph-road-safety-logical-model.oneiss.incident.patientsVehicle</t>
@@ -2344,30 +2368,6 @@
   </si>
   <si>
     <t>Presence of traffic investigator (MDS219)</t>
-  </si>
-  <si>
-    <t>ph-road-safety-logical-model.postcrash.incident.otherRiskFactors</t>
-  </si>
-  <si>
-    <t>Other risk factors at time of incident (MDS230)</t>
-  </si>
-  <si>
-    <t>ph-road-safety-logical-model.postcrash.incident.otherRiskFactorsOther</t>
-  </si>
-  <si>
-    <t>Other risk factors - Others (MDS231)</t>
-  </si>
-  <si>
-    <t>ph-road-safety-logical-model.postcrash.incident.safetyAccessories</t>
-  </si>
-  <si>
-    <t>Safety accessories (MDS232)</t>
-  </si>
-  <si>
-    <t>ph-road-safety-logical-model.postcrash.incident.safetyAccessoriesOther</t>
-  </si>
-  <si>
-    <t>Safety - Others (MDS233)</t>
   </si>
 </sst>
 </file>
@@ -23132,7 +23132,7 @@
         <v>75</v>
       </c>
       <c r="G203" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H203" t="s" s="2">
         <v>74</v>
@@ -23144,13 +23144,13 @@
         <v>74</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>161</v>
+        <v>547</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>161</v>
+        <v>547</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -23207,21 +23207,21 @@
         <v>75</v>
       </c>
       <c r="AH203" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI203" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -23247,10 +23247,10 @@
         <v>85</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>86</v>
+        <v>549</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>87</v>
+        <v>549</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -23301,7 +23301,7 @@
         <v>74</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>88</v>
+        <v>548</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>75</v>
@@ -23318,21 +23318,21 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G205" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H205" t="s" s="2">
         <v>74</v>
@@ -23344,17 +23344,15 @@
         <v>74</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N205" s="2"/>
       <c r="O205" s="2"/>
       <c r="P205" t="s" s="2">
         <v>74</v>
@@ -23391,75 +23389,71 @@
         <v>74</v>
       </c>
       <c r="AB205" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC205" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD205" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>98</v>
+        <v>550</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH205" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI205" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G206" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H206" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I206" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O206" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="N206" s="2"/>
+      <c r="O206" s="2"/>
       <c r="P206" t="s" s="2">
         <v>74</v>
       </c>
@@ -23507,38 +23501,38 @@
         <v>74</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH206" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI206" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G207" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H207" t="s" s="2">
         <v>74</v>
@@ -23550,15 +23544,17 @@
         <v>74</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>551</v>
+        <v>92</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="N207" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N207" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O207" s="2"/>
       <c r="P207" t="s" s="2">
         <v>74</v>
@@ -23595,71 +23591,75 @@
         <v>74</v>
       </c>
       <c r="AB207" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC207" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD207" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>550</v>
+        <v>98</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH207" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI207" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G208" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H208" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I208" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>553</v>
+        <v>103</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N208" s="2"/>
-      <c r="O208" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N208" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O208" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P208" t="s" s="2">
         <v>74</v>
       </c>
@@ -23707,19 +23707,19 @@
         <v>74</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>552</v>
+        <v>106</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH208" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI208" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="209">
@@ -23735,7 +23735,7 @@
       </c>
       <c r="E209" s="2"/>
       <c r="F209" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>80</v>
@@ -23750,7 +23750,7 @@
         <v>74</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="L209" t="s" s="2">
         <v>555</v>
@@ -23810,7 +23810,7 @@
         <v>554</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>80</v>
@@ -23935,7 +23935,7 @@
       </c>
       <c r="E211" s="2"/>
       <c r="F211" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G211" t="s" s="2">
         <v>80</v>
@@ -23950,7 +23950,7 @@
         <v>74</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="L211" t="s" s="2">
         <v>559</v>
@@ -24010,7 +24010,7 @@
         <v>558</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>80</v>
@@ -24150,7 +24150,7 @@
         <v>74</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="L213" t="s" s="2">
         <v>563</v>
@@ -24350,7 +24350,7 @@
         <v>74</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="L215" t="s" s="2">
         <v>567</v>
@@ -24450,7 +24450,7 @@
         <v>74</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="L216" t="s" s="2">
         <v>569</v>
@@ -24550,7 +24550,7 @@
         <v>74</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="L217" t="s" s="2">
         <v>571</v>
@@ -24850,7 +24850,7 @@
         <v>74</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="L220" t="s" s="2">
         <v>577</v>
@@ -24938,7 +24938,7 @@
         <v>75</v>
       </c>
       <c r="G221" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H221" t="s" s="2">
         <v>74</v>
@@ -24950,7 +24950,7 @@
         <v>74</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="L221" t="s" s="2">
         <v>579</v>
@@ -25013,7 +25013,7 @@
         <v>75</v>
       </c>
       <c r="AH221" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI221" t="s" s="2">
         <v>74</v>
@@ -25138,7 +25138,7 @@
         <v>75</v>
       </c>
       <c r="G223" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H223" t="s" s="2">
         <v>74</v>
@@ -25213,7 +25213,7 @@
         <v>75</v>
       </c>
       <c r="AH223" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI223" t="s" s="2">
         <v>74</v>
@@ -25338,7 +25338,7 @@
         <v>75</v>
       </c>
       <c r="G225" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H225" t="s" s="2">
         <v>74</v>
@@ -25413,7 +25413,7 @@
         <v>75</v>
       </c>
       <c r="AH225" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI225" t="s" s="2">
         <v>74</v>
@@ -25438,7 +25438,7 @@
         <v>75</v>
       </c>
       <c r="G226" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H226" t="s" s="2">
         <v>74</v>
@@ -25450,7 +25450,7 @@
         <v>74</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>266</v>
+        <v>144</v>
       </c>
       <c r="L226" t="s" s="2">
         <v>589</v>
@@ -25513,7 +25513,7 @@
         <v>75</v>
       </c>
       <c r="AH226" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI226" t="s" s="2">
         <v>74</v>
@@ -25538,7 +25538,7 @@
         <v>75</v>
       </c>
       <c r="G227" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H227" t="s" s="2">
         <v>74</v>
@@ -25550,7 +25550,7 @@
         <v>74</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>266</v>
+        <v>85</v>
       </c>
       <c r="L227" t="s" s="2">
         <v>591</v>
@@ -25613,7 +25613,7 @@
         <v>75</v>
       </c>
       <c r="AH227" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI227" t="s" s="2">
         <v>74</v>
@@ -25650,7 +25650,7 @@
         <v>74</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="L228" t="s" s="2">
         <v>593</v>
@@ -25750,7 +25750,7 @@
         <v>74</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L229" t="s" s="2">
         <v>595</v>
@@ -25819,7 +25819,7 @@
         <v>74</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="230">
@@ -25850,13 +25850,13 @@
         <v>74</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>85</v>
+        <v>266</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>86</v>
+        <v>597</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>87</v>
+        <v>597</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
@@ -25907,7 +25907,7 @@
         <v>74</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>88</v>
+        <v>596</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>75</v>
@@ -25924,21 +25924,21 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G231" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H231" t="s" s="2">
         <v>74</v>
@@ -25950,17 +25950,15 @@
         <v>74</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>91</v>
+        <v>266</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>92</v>
+        <v>599</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N231" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="N231" s="2"/>
       <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
         <v>74</v>
@@ -25997,75 +25995,71 @@
         <v>74</v>
       </c>
       <c r="AB231" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC231" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD231" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>98</v>
+        <v>598</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH231" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI231" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G232" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H232" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I232" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J232" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>103</v>
+        <v>601</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N232" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O232" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="N232" s="2"/>
+      <c r="O232" s="2"/>
       <c r="P232" t="s" s="2">
         <v>74</v>
       </c>
@@ -26113,27 +26107,27 @@
         <v>74</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>106</v>
+        <v>600</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH232" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI232" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ232" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -26156,13 +26150,13 @@
         <v>74</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
@@ -26213,7 +26207,7 @@
         <v>74</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>75</v>
@@ -26225,15 +26219,15 @@
         <v>74</v>
       </c>
       <c r="AJ233" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -26256,13 +26250,13 @@
         <v>74</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>602</v>
+        <v>86</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>602</v>
+        <v>87</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
@@ -26313,7 +26307,7 @@
         <v>74</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>601</v>
+        <v>88</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>75</v>
@@ -26330,21 +26324,21 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G235" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H235" t="s" s="2">
         <v>74</v>
@@ -26356,15 +26350,17 @@
         <v>74</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>604</v>
+        <v>92</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N235" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N235" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O235" s="2"/>
       <c r="P235" t="s" s="2">
         <v>74</v>
@@ -26401,71 +26397,75 @@
         <v>74</v>
       </c>
       <c r="AB235" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC235" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD235" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>603</v>
+        <v>98</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH235" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI235" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ235" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G236" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H236" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I236" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N236" s="2"/>
-      <c r="O236" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N236" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O236" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P236" t="s" s="2">
         <v>74</v>
       </c>
@@ -26513,38 +26513,38 @@
         <v>74</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH236" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI236" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ236" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G237" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H237" t="s" s="2">
         <v>74</v>
@@ -26556,17 +26556,15 @@
         <v>74</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>92</v>
+        <v>608</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="N237" s="2"/>
       <c r="O237" s="2"/>
       <c r="P237" t="s" s="2">
         <v>74</v>
@@ -26603,75 +26601,71 @@
         <v>74</v>
       </c>
       <c r="AB237" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC237" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD237" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>98</v>
+        <v>607</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH237" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI237" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ237" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G238" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H238" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I238" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>103</v>
+        <v>610</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N238" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O238" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="N238" s="2"/>
+      <c r="O238" s="2"/>
       <c r="P238" t="s" s="2">
         <v>74</v>
       </c>
@@ -26719,27 +26713,27 @@
         <v>74</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>106</v>
+        <v>609</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH238" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI238" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ238" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -26762,13 +26756,13 @@
         <v>74</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="N239" s="2"/>
       <c r="O239" s="2"/>
@@ -26819,7 +26813,7 @@
         <v>74</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>75</v>
@@ -26831,15 +26825,15 @@
         <v>74</v>
       </c>
       <c r="AJ239" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -26862,13 +26856,13 @@
         <v>74</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>611</v>
+        <v>86</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>611</v>
+        <v>87</v>
       </c>
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
@@ -26919,7 +26913,7 @@
         <v>74</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>610</v>
+        <v>88</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>75</v>
@@ -26936,21 +26930,21 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G241" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H241" t="s" s="2">
         <v>74</v>
@@ -26962,15 +26956,17 @@
         <v>74</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>613</v>
+        <v>92</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N241" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N241" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O241" s="2"/>
       <c r="P241" t="s" s="2">
         <v>74</v>
@@ -27007,71 +27003,75 @@
         <v>74</v>
       </c>
       <c r="AB241" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC241" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD241" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>612</v>
+        <v>98</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH241" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI241" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ241" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G242" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H242" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I242" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J242" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>615</v>
+        <v>103</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="N242" s="2"/>
-      <c r="O242" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N242" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O242" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P242" t="s" s="2">
         <v>74</v>
       </c>
@@ -27119,19 +27119,19 @@
         <v>74</v>
       </c>
       <c r="AF242" t="s" s="2">
-        <v>614</v>
+        <v>106</v>
       </c>
       <c r="AG242" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH242" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI242" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ242" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="243">
@@ -27162,13 +27162,13 @@
         <v>74</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>86</v>
+        <v>617</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>87</v>
+        <v>617</v>
       </c>
       <c r="N243" s="2"/>
       <c r="O243" s="2"/>
@@ -27219,7 +27219,7 @@
         <v>74</v>
       </c>
       <c r="AF243" t="s" s="2">
-        <v>88</v>
+        <v>616</v>
       </c>
       <c r="AG243" t="s" s="2">
         <v>75</v>
@@ -27236,21 +27236,21 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G244" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H244" t="s" s="2">
         <v>74</v>
@@ -27262,17 +27262,15 @@
         <v>74</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>92</v>
+        <v>619</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N244" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="N244" s="2"/>
       <c r="O244" s="2"/>
       <c r="P244" t="s" s="2">
         <v>74</v>
@@ -27309,75 +27307,71 @@
         <v>74</v>
       </c>
       <c r="AB244" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC244" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD244" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>98</v>
+        <v>618</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH244" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI244" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ244" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G245" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H245" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I245" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J245" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>103</v>
+        <v>621</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N245" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O245" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="N245" s="2"/>
+      <c r="O245" s="2"/>
       <c r="P245" t="s" s="2">
         <v>74</v>
       </c>
@@ -27425,27 +27419,27 @@
         <v>74</v>
       </c>
       <c r="AF245" t="s" s="2">
-        <v>106</v>
+        <v>620</v>
       </c>
       <c r="AG245" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH245" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI245" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ245" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -27468,13 +27462,13 @@
         <v>74</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
@@ -27525,7 +27519,7 @@
         <v>74</v>
       </c>
       <c r="AF246" t="s" s="2">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="AG246" t="s" s="2">
         <v>75</v>
@@ -27537,15 +27531,15 @@
         <v>74</v>
       </c>
       <c r="AJ246" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -27568,13 +27562,13 @@
         <v>74</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>611</v>
+        <v>86</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>611</v>
+        <v>87</v>
       </c>
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
@@ -27625,7 +27619,7 @@
         <v>74</v>
       </c>
       <c r="AF247" t="s" s="2">
-        <v>620</v>
+        <v>88</v>
       </c>
       <c r="AG247" t="s" s="2">
         <v>75</v>
@@ -27642,21 +27636,21 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G248" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H248" t="s" s="2">
         <v>74</v>
@@ -27668,15 +27662,17 @@
         <v>74</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>613</v>
+        <v>92</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N248" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N248" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O248" s="2"/>
       <c r="P248" t="s" s="2">
         <v>74</v>
@@ -27713,71 +27709,75 @@
         <v>74</v>
       </c>
       <c r="AB248" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC248" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD248" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF248" t="s" s="2">
-        <v>621</v>
+        <v>98</v>
       </c>
       <c r="AG248" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH248" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI248" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ248" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G249" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H249" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I249" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>623</v>
+        <v>103</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N249" s="2"/>
-      <c r="O249" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N249" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O249" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P249" t="s" s="2">
         <v>74</v>
       </c>
@@ -27825,27 +27825,27 @@
         <v>74</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>622</v>
+        <v>106</v>
       </c>
       <c r="AG249" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH249" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI249" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ249" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -27868,13 +27868,13 @@
         <v>74</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>86</v>
+        <v>617</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>87</v>
+        <v>617</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" s="2"/>
@@ -27925,7 +27925,7 @@
         <v>74</v>
       </c>
       <c r="AF250" t="s" s="2">
-        <v>88</v>
+        <v>627</v>
       </c>
       <c r="AG250" t="s" s="2">
         <v>75</v>
@@ -27942,21 +27942,21 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G251" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H251" t="s" s="2">
         <v>74</v>
@@ -27968,17 +27968,15 @@
         <v>74</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>92</v>
+        <v>619</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N251" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="N251" s="2"/>
       <c r="O251" s="2"/>
       <c r="P251" t="s" s="2">
         <v>74</v>
@@ -28015,75 +28013,71 @@
         <v>74</v>
       </c>
       <c r="AB251" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC251" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD251" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>98</v>
+        <v>628</v>
       </c>
       <c r="AG251" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH251" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI251" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ251" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G252" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H252" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I252" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>103</v>
+        <v>621</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N252" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O252" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="N252" s="2"/>
+      <c r="O252" s="2"/>
       <c r="P252" t="s" s="2">
         <v>74</v>
       </c>
@@ -28131,27 +28125,27 @@
         <v>74</v>
       </c>
       <c r="AF252" t="s" s="2">
-        <v>106</v>
+        <v>629</v>
       </c>
       <c r="AG252" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH252" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI252" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ252" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -28174,13 +28168,13 @@
         <v>74</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="N253" s="2"/>
       <c r="O253" s="2"/>
@@ -28231,7 +28225,7 @@
         <v>74</v>
       </c>
       <c r="AF253" t="s" s="2">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="AG253" t="s" s="2">
         <v>75</v>
@@ -28243,15 +28237,15 @@
         <v>74</v>
       </c>
       <c r="AJ253" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -28274,13 +28268,13 @@
         <v>74</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>630</v>
+        <v>86</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>630</v>
+        <v>87</v>
       </c>
       <c r="N254" s="2"/>
       <c r="O254" s="2"/>
@@ -28331,7 +28325,7 @@
         <v>74</v>
       </c>
       <c r="AF254" t="s" s="2">
-        <v>629</v>
+        <v>88</v>
       </c>
       <c r="AG254" t="s" s="2">
         <v>75</v>
@@ -28343,26 +28337,26 @@
         <v>74</v>
       </c>
       <c r="AJ254" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G255" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H255" t="s" s="2">
         <v>74</v>
@@ -28374,15 +28368,17 @@
         <v>74</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N255" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N255" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O255" s="2"/>
       <c r="P255" t="s" s="2">
         <v>74</v>
@@ -28419,43 +28415,43 @@
         <v>74</v>
       </c>
       <c r="AB255" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC255" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD255" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF255" t="s" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AG255" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH255" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI255" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ255" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" t="s" s="2">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" t="s" s="2">
@@ -28468,24 +28464,26 @@
         <v>74</v>
       </c>
       <c r="I256" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J256" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K256" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="N256" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="O256" s="2"/>
+      <c r="O256" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P256" t="s" s="2">
         <v>74</v>
       </c>
@@ -28521,19 +28519,19 @@
         <v>74</v>
       </c>
       <c r="AB256" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC256" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD256" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF256" t="s" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AG256" t="s" s="2">
         <v>75</v>
@@ -28550,46 +28548,42 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G257" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H257" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I257" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>103</v>
+        <v>636</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N257" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O257" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="N257" s="2"/>
+      <c r="O257" s="2"/>
       <c r="P257" t="s" s="2">
         <v>74</v>
       </c>
@@ -28637,27 +28631,27 @@
         <v>74</v>
       </c>
       <c r="AF257" t="s" s="2">
-        <v>106</v>
+        <v>635</v>
       </c>
       <c r="AG257" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH257" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI257" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ257" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -28680,13 +28674,13 @@
         <v>74</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="N258" s="2"/>
       <c r="O258" s="2"/>
@@ -28737,7 +28731,7 @@
         <v>74</v>
       </c>
       <c r="AF258" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="AG258" t="s" s="2">
         <v>75</v>
@@ -28749,15 +28743,15 @@
         <v>74</v>
       </c>
       <c r="AJ258" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -28780,13 +28774,13 @@
         <v>74</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>613</v>
+        <v>86</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>613</v>
+        <v>87</v>
       </c>
       <c r="N259" s="2"/>
       <c r="O259" s="2"/>
@@ -28837,7 +28831,7 @@
         <v>74</v>
       </c>
       <c r="AF259" t="s" s="2">
-        <v>635</v>
+        <v>88</v>
       </c>
       <c r="AG259" t="s" s="2">
         <v>75</v>
@@ -28854,21 +28848,21 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G260" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H260" t="s" s="2">
         <v>74</v>
@@ -28880,15 +28874,17 @@
         <v>74</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>637</v>
+        <v>92</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N260" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N260" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O260" s="2"/>
       <c r="P260" t="s" s="2">
         <v>74</v>
@@ -28925,71 +28921,75 @@
         <v>74</v>
       </c>
       <c r="AB260" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC260" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD260" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF260" t="s" s="2">
-        <v>636</v>
+        <v>98</v>
       </c>
       <c r="AG260" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH260" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI260" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ260" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G261" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H261" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I261" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J261" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N261" s="2"/>
-      <c r="O261" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N261" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O261" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P261" t="s" s="2">
         <v>74</v>
       </c>
@@ -29037,38 +29037,38 @@
         <v>74</v>
       </c>
       <c r="AF261" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="AG261" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH261" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI261" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ261" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G262" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H262" t="s" s="2">
         <v>74</v>
@@ -29080,17 +29080,15 @@
         <v>74</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>92</v>
+        <v>619</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N262" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="N262" s="2"/>
       <c r="O262" s="2"/>
       <c r="P262" t="s" s="2">
         <v>74</v>
@@ -29127,75 +29125,71 @@
         <v>74</v>
       </c>
       <c r="AB262" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC262" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD262" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF262" t="s" s="2">
-        <v>98</v>
+        <v>642</v>
       </c>
       <c r="AG262" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH262" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI262" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ262" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E263" s="2"/>
       <c r="F263" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G263" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H263" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I263" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J263" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>103</v>
+        <v>621</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N263" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O263" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="N263" s="2"/>
+      <c r="O263" s="2"/>
       <c r="P263" t="s" s="2">
         <v>74</v>
       </c>
@@ -29243,27 +29237,27 @@
         <v>74</v>
       </c>
       <c r="AF263" t="s" s="2">
-        <v>106</v>
+        <v>643</v>
       </c>
       <c r="AG263" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH263" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI263" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ263" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -29286,13 +29280,13 @@
         <v>74</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="N264" s="2"/>
       <c r="O264" s="2"/>
@@ -29343,7 +29337,7 @@
         <v>74</v>
       </c>
       <c r="AF264" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="AG264" t="s" s="2">
         <v>75</v>
@@ -29355,15 +29349,15 @@
         <v>74</v>
       </c>
       <c r="AJ264" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -29386,13 +29380,13 @@
         <v>74</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>613</v>
+        <v>86</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>613</v>
+        <v>87</v>
       </c>
       <c r="N265" s="2"/>
       <c r="O265" s="2"/>
@@ -29443,7 +29437,7 @@
         <v>74</v>
       </c>
       <c r="AF265" t="s" s="2">
-        <v>642</v>
+        <v>88</v>
       </c>
       <c r="AG265" t="s" s="2">
         <v>75</v>
@@ -29460,21 +29454,21 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E266" s="2"/>
       <c r="F266" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G266" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H266" t="s" s="2">
         <v>74</v>
@@ -29486,15 +29480,17 @@
         <v>74</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>644</v>
+        <v>92</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="N266" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N266" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O266" s="2"/>
       <c r="P266" t="s" s="2">
         <v>74</v>
@@ -29531,71 +29527,75 @@
         <v>74</v>
       </c>
       <c r="AB266" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC266" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD266" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF266" t="s" s="2">
-        <v>643</v>
+        <v>98</v>
       </c>
       <c r="AG266" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH266" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI266" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ266" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E267" s="2"/>
       <c r="F267" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G267" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H267" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I267" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J267" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N267" s="2"/>
-      <c r="O267" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N267" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O267" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P267" t="s" s="2">
         <v>74</v>
       </c>
@@ -29643,38 +29643,38 @@
         <v>74</v>
       </c>
       <c r="AF267" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="AG267" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH267" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI267" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ267" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E268" s="2"/>
       <c r="F268" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G268" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H268" t="s" s="2">
         <v>74</v>
@@ -29686,17 +29686,15 @@
         <v>74</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>92</v>
+        <v>619</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N268" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="N268" s="2"/>
       <c r="O268" s="2"/>
       <c r="P268" t="s" s="2">
         <v>74</v>
@@ -29733,75 +29731,71 @@
         <v>74</v>
       </c>
       <c r="AB268" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC268" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD268" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF268" t="s" s="2">
-        <v>98</v>
+        <v>649</v>
       </c>
       <c r="AG268" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH268" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI268" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ268" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E269" s="2"/>
       <c r="F269" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G269" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H269" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I269" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J269" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>103</v>
+        <v>621</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N269" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O269" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="N269" s="2"/>
+      <c r="O269" s="2"/>
       <c r="P269" t="s" s="2">
         <v>74</v>
       </c>
@@ -29849,27 +29843,27 @@
         <v>74</v>
       </c>
       <c r="AF269" t="s" s="2">
-        <v>106</v>
+        <v>650</v>
       </c>
       <c r="AG269" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH269" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI269" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ269" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -29892,13 +29886,13 @@
         <v>74</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>611</v>
+        <v>652</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>611</v>
+        <v>652</v>
       </c>
       <c r="N270" s="2"/>
       <c r="O270" s="2"/>
@@ -29949,7 +29943,7 @@
         <v>74</v>
       </c>
       <c r="AF270" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="AG270" t="s" s="2">
         <v>75</v>
@@ -29961,15 +29955,15 @@
         <v>74</v>
       </c>
       <c r="AJ270" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" t="s" s="2">
@@ -29992,13 +29986,13 @@
         <v>74</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>613</v>
+        <v>86</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>613</v>
+        <v>87</v>
       </c>
       <c r="N271" s="2"/>
       <c r="O271" s="2"/>
@@ -30049,7 +30043,7 @@
         <v>74</v>
       </c>
       <c r="AF271" t="s" s="2">
-        <v>649</v>
+        <v>88</v>
       </c>
       <c r="AG271" t="s" s="2">
         <v>75</v>
@@ -30066,21 +30060,21 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E272" s="2"/>
       <c r="F272" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G272" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H272" t="s" s="2">
         <v>74</v>
@@ -30092,15 +30086,17 @@
         <v>74</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>651</v>
+        <v>92</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N272" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N272" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O272" s="2"/>
       <c r="P272" t="s" s="2">
         <v>74</v>
@@ -30137,71 +30133,75 @@
         <v>74</v>
       </c>
       <c r="AB272" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC272" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD272" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF272" t="s" s="2">
-        <v>650</v>
+        <v>98</v>
       </c>
       <c r="AG272" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH272" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI272" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ272" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E273" s="2"/>
       <c r="F273" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G273" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H273" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I273" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N273" s="2"/>
-      <c r="O273" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N273" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O273" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P273" t="s" s="2">
         <v>74</v>
       </c>
@@ -30249,38 +30249,38 @@
         <v>74</v>
       </c>
       <c r="AF273" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="AG273" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH273" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI273" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ273" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E274" s="2"/>
       <c r="F274" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G274" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H274" t="s" s="2">
         <v>74</v>
@@ -30292,17 +30292,15 @@
         <v>74</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>92</v>
+        <v>619</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N274" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="N274" s="2"/>
       <c r="O274" s="2"/>
       <c r="P274" t="s" s="2">
         <v>74</v>
@@ -30339,75 +30337,71 @@
         <v>74</v>
       </c>
       <c r="AB274" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC274" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD274" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF274" t="s" s="2">
-        <v>98</v>
+        <v>656</v>
       </c>
       <c r="AG274" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH274" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI274" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ274" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E275" s="2"/>
       <c r="F275" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G275" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H275" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I275" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J275" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>103</v>
+        <v>621</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N275" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O275" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="N275" s="2"/>
+      <c r="O275" s="2"/>
       <c r="P275" t="s" s="2">
         <v>74</v>
       </c>
@@ -30455,27 +30449,27 @@
         <v>74</v>
       </c>
       <c r="AF275" t="s" s="2">
-        <v>106</v>
+        <v>657</v>
       </c>
       <c r="AG275" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH275" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI275" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ275" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -30498,13 +30492,13 @@
         <v>74</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>611</v>
+        <v>659</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>611</v>
+        <v>659</v>
       </c>
       <c r="N276" s="2"/>
       <c r="O276" s="2"/>
@@ -30555,7 +30549,7 @@
         <v>74</v>
       </c>
       <c r="AF276" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="AG276" t="s" s="2">
         <v>75</v>
@@ -30567,15 +30561,15 @@
         <v>74</v>
       </c>
       <c r="AJ276" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -30598,13 +30592,13 @@
         <v>74</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>613</v>
+        <v>86</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>613</v>
+        <v>87</v>
       </c>
       <c r="N277" s="2"/>
       <c r="O277" s="2"/>
@@ -30655,7 +30649,7 @@
         <v>74</v>
       </c>
       <c r="AF277" t="s" s="2">
-        <v>656</v>
+        <v>88</v>
       </c>
       <c r="AG277" t="s" s="2">
         <v>75</v>
@@ -30672,21 +30666,21 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E278" s="2"/>
       <c r="F278" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G278" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H278" t="s" s="2">
         <v>74</v>
@@ -30698,15 +30692,17 @@
         <v>74</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>658</v>
+        <v>92</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="N278" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N278" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O278" s="2"/>
       <c r="P278" t="s" s="2">
         <v>74</v>
@@ -30743,71 +30739,75 @@
         <v>74</v>
       </c>
       <c r="AB278" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC278" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD278" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF278" t="s" s="2">
-        <v>657</v>
+        <v>98</v>
       </c>
       <c r="AG278" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH278" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI278" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ278" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E279" s="2"/>
       <c r="F279" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G279" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H279" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I279" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N279" s="2"/>
-      <c r="O279" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N279" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O279" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P279" t="s" s="2">
         <v>74</v>
       </c>
@@ -30855,38 +30855,38 @@
         <v>74</v>
       </c>
       <c r="AF279" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="AG279" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH279" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI279" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ279" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E280" s="2"/>
       <c r="F280" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G280" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H280" t="s" s="2">
         <v>74</v>
@@ -30898,17 +30898,15 @@
         <v>74</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>92</v>
+        <v>619</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N280" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="N280" s="2"/>
       <c r="O280" s="2"/>
       <c r="P280" t="s" s="2">
         <v>74</v>
@@ -30945,75 +30943,71 @@
         <v>74</v>
       </c>
       <c r="AB280" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC280" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD280" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF280" t="s" s="2">
-        <v>98</v>
+        <v>663</v>
       </c>
       <c r="AG280" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH280" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI280" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ280" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E281" s="2"/>
       <c r="F281" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G281" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H281" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I281" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J281" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>103</v>
+        <v>621</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N281" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O281" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="N281" s="2"/>
+      <c r="O281" s="2"/>
       <c r="P281" t="s" s="2">
         <v>74</v>
       </c>
@@ -31061,27 +31055,27 @@
         <v>74</v>
       </c>
       <c r="AF281" t="s" s="2">
-        <v>106</v>
+        <v>664</v>
       </c>
       <c r="AG281" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH281" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI281" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ281" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
@@ -31104,13 +31098,13 @@
         <v>74</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>609</v>
+        <v>666</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>609</v>
+        <v>666</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" s="2"/>
@@ -31161,7 +31155,7 @@
         <v>74</v>
       </c>
       <c r="AF282" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="AG282" t="s" s="2">
         <v>75</v>
@@ -31173,15 +31167,15 @@
         <v>74</v>
       </c>
       <c r="AJ282" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
@@ -31204,13 +31198,13 @@
         <v>74</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>611</v>
+        <v>86</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>611</v>
+        <v>87</v>
       </c>
       <c r="N283" s="2"/>
       <c r="O283" s="2"/>
@@ -31261,7 +31255,7 @@
         <v>74</v>
       </c>
       <c r="AF283" t="s" s="2">
-        <v>663</v>
+        <v>88</v>
       </c>
       <c r="AG283" t="s" s="2">
         <v>75</v>
@@ -31278,21 +31272,21 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E284" s="2"/>
       <c r="F284" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G284" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H284" t="s" s="2">
         <v>74</v>
@@ -31304,15 +31298,17 @@
         <v>74</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>613</v>
+        <v>92</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N284" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N284" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O284" s="2"/>
       <c r="P284" t="s" s="2">
         <v>74</v>
@@ -31349,71 +31345,75 @@
         <v>74</v>
       </c>
       <c r="AB284" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC284" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD284" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF284" t="s" s="2">
-        <v>664</v>
+        <v>98</v>
       </c>
       <c r="AG284" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH284" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI284" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ284" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E285" s="2"/>
       <c r="F285" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G285" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H285" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I285" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J285" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>666</v>
+        <v>103</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N285" s="2"/>
-      <c r="O285" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N285" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O285" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P285" t="s" s="2">
         <v>74</v>
       </c>
@@ -31461,27 +31461,27 @@
         <v>74</v>
       </c>
       <c r="AF285" t="s" s="2">
-        <v>665</v>
+        <v>106</v>
       </c>
       <c r="AG285" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH285" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI285" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ285" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
@@ -31504,13 +31504,13 @@
         <v>74</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>86</v>
+        <v>617</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>87</v>
+        <v>617</v>
       </c>
       <c r="N286" s="2"/>
       <c r="O286" s="2"/>
@@ -31561,7 +31561,7 @@
         <v>74</v>
       </c>
       <c r="AF286" t="s" s="2">
-        <v>88</v>
+        <v>670</v>
       </c>
       <c r="AG286" t="s" s="2">
         <v>75</v>
@@ -31578,21 +31578,21 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E287" s="2"/>
       <c r="F287" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G287" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H287" t="s" s="2">
         <v>74</v>
@@ -31604,17 +31604,15 @@
         <v>74</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>92</v>
+        <v>619</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N287" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="N287" s="2"/>
       <c r="O287" s="2"/>
       <c r="P287" t="s" s="2">
         <v>74</v>
@@ -31651,75 +31649,71 @@
         <v>74</v>
       </c>
       <c r="AB287" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC287" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD287" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF287" t="s" s="2">
-        <v>98</v>
+        <v>671</v>
       </c>
       <c r="AG287" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH287" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI287" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ287" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E288" s="2"/>
       <c r="F288" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G288" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H288" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I288" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J288" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>103</v>
+        <v>621</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N288" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O288" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="N288" s="2"/>
+      <c r="O288" s="2"/>
       <c r="P288" t="s" s="2">
         <v>74</v>
       </c>
@@ -31767,27 +31761,27 @@
         <v>74</v>
       </c>
       <c r="AF288" t="s" s="2">
-        <v>106</v>
+        <v>672</v>
       </c>
       <c r="AG288" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH288" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI288" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ288" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -31810,13 +31804,13 @@
         <v>74</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>609</v>
+        <v>674</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>609</v>
+        <v>674</v>
       </c>
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
@@ -31867,7 +31861,7 @@
         <v>74</v>
       </c>
       <c r="AF289" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="AG289" t="s" s="2">
         <v>75</v>
@@ -31879,15 +31873,15 @@
         <v>74</v>
       </c>
       <c r="AJ289" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -31910,13 +31904,13 @@
         <v>74</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>611</v>
+        <v>86</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>611</v>
+        <v>87</v>
       </c>
       <c r="N290" s="2"/>
       <c r="O290" s="2"/>
@@ -31967,7 +31961,7 @@
         <v>74</v>
       </c>
       <c r="AF290" t="s" s="2">
-        <v>671</v>
+        <v>88</v>
       </c>
       <c r="AG290" t="s" s="2">
         <v>75</v>
@@ -31984,21 +31978,21 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E291" s="2"/>
       <c r="F291" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G291" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H291" t="s" s="2">
         <v>74</v>
@@ -32010,15 +32004,17 @@
         <v>74</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>613</v>
+        <v>92</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N291" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N291" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O291" s="2"/>
       <c r="P291" t="s" s="2">
         <v>74</v>
@@ -32055,71 +32051,75 @@
         <v>74</v>
       </c>
       <c r="AB291" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC291" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD291" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF291" t="s" s="2">
-        <v>672</v>
+        <v>98</v>
       </c>
       <c r="AG291" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH291" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI291" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ291" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E292" s="2"/>
       <c r="F292" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G292" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H292" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I292" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>674</v>
+        <v>103</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="N292" s="2"/>
-      <c r="O292" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N292" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O292" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P292" t="s" s="2">
         <v>74</v>
       </c>
@@ -32167,27 +32167,27 @@
         <v>74</v>
       </c>
       <c r="AF292" t="s" s="2">
-        <v>673</v>
+        <v>106</v>
       </c>
       <c r="AG292" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH292" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI292" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ292" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" t="s" s="2">
@@ -32210,13 +32210,13 @@
         <v>74</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>86</v>
+        <v>617</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>87</v>
+        <v>617</v>
       </c>
       <c r="N293" s="2"/>
       <c r="O293" s="2"/>
@@ -32267,7 +32267,7 @@
         <v>74</v>
       </c>
       <c r="AF293" t="s" s="2">
-        <v>88</v>
+        <v>678</v>
       </c>
       <c r="AG293" t="s" s="2">
         <v>75</v>
@@ -32284,21 +32284,21 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E294" s="2"/>
       <c r="F294" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G294" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H294" t="s" s="2">
         <v>74</v>
@@ -32310,17 +32310,15 @@
         <v>74</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>92</v>
+        <v>619</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N294" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="N294" s="2"/>
       <c r="O294" s="2"/>
       <c r="P294" t="s" s="2">
         <v>74</v>
@@ -32357,75 +32355,71 @@
         <v>74</v>
       </c>
       <c r="AB294" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC294" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD294" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF294" t="s" s="2">
-        <v>98</v>
+        <v>679</v>
       </c>
       <c r="AG294" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH294" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI294" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ294" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E295" s="2"/>
       <c r="F295" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G295" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H295" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I295" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J295" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>103</v>
+        <v>621</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N295" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O295" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="N295" s="2"/>
+      <c r="O295" s="2"/>
       <c r="P295" t="s" s="2">
         <v>74</v>
       </c>
@@ -32473,27 +32467,27 @@
         <v>74</v>
       </c>
       <c r="AF295" t="s" s="2">
-        <v>106</v>
+        <v>680</v>
       </c>
       <c r="AG295" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH295" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI295" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ295" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
@@ -32516,13 +32510,13 @@
         <v>74</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>609</v>
+        <v>682</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>609</v>
+        <v>682</v>
       </c>
       <c r="N296" s="2"/>
       <c r="O296" s="2"/>
@@ -32573,7 +32567,7 @@
         <v>74</v>
       </c>
       <c r="AF296" t="s" s="2">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="AG296" t="s" s="2">
         <v>75</v>
@@ -32585,15 +32579,15 @@
         <v>74</v>
       </c>
       <c r="AJ296" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
@@ -32616,13 +32610,13 @@
         <v>74</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>680</v>
+        <v>86</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>680</v>
+        <v>87</v>
       </c>
       <c r="N297" s="2"/>
       <c r="O297" s="2"/>
@@ -32673,7 +32667,7 @@
         <v>74</v>
       </c>
       <c r="AF297" t="s" s="2">
-        <v>679</v>
+        <v>88</v>
       </c>
       <c r="AG297" t="s" s="2">
         <v>75</v>
@@ -32685,26 +32679,26 @@
         <v>74</v>
       </c>
       <c r="AJ297" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E298" s="2"/>
       <c r="F298" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G298" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H298" t="s" s="2">
         <v>74</v>
@@ -32716,15 +32710,17 @@
         <v>74</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N298" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N298" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O298" s="2"/>
       <c r="P298" t="s" s="2">
         <v>74</v>
@@ -32761,43 +32757,43 @@
         <v>74</v>
       </c>
       <c r="AB298" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC298" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD298" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF298" t="s" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AG298" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH298" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI298" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ298" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E299" s="2"/>
       <c r="F299" t="s" s="2">
@@ -32810,24 +32806,26 @@
         <v>74</v>
       </c>
       <c r="I299" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J299" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K299" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="N299" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="O299" s="2"/>
+      <c r="O299" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P299" t="s" s="2">
         <v>74</v>
       </c>
@@ -32863,19 +32861,19 @@
         <v>74</v>
       </c>
       <c r="AB299" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC299" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD299" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF299" t="s" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AG299" t="s" s="2">
         <v>75</v>
@@ -32892,46 +32890,42 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E300" s="2"/>
       <c r="F300" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G300" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H300" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I300" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J300" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>103</v>
+        <v>617</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N300" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O300" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="N300" s="2"/>
+      <c r="O300" s="2"/>
       <c r="P300" t="s" s="2">
         <v>74</v>
       </c>
@@ -32979,27 +32973,27 @@
         <v>74</v>
       </c>
       <c r="AF300" t="s" s="2">
-        <v>106</v>
+        <v>686</v>
       </c>
       <c r="AG300" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH300" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI300" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ300" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" t="s" s="2">
@@ -33022,13 +33016,13 @@
         <v>74</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>611</v>
+        <v>688</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>611</v>
+        <v>688</v>
       </c>
       <c r="N301" s="2"/>
       <c r="O301" s="2"/>
@@ -33079,7 +33073,7 @@
         <v>74</v>
       </c>
       <c r="AF301" t="s" s="2">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="AG301" t="s" s="2">
         <v>75</v>
@@ -33091,15 +33085,15 @@
         <v>74</v>
       </c>
       <c r="AJ301" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" t="s" s="2">
@@ -33122,13 +33116,13 @@
         <v>74</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>613</v>
+        <v>86</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>613</v>
+        <v>87</v>
       </c>
       <c r="N302" s="2"/>
       <c r="O302" s="2"/>
@@ -33179,7 +33173,7 @@
         <v>74</v>
       </c>
       <c r="AF302" t="s" s="2">
-        <v>685</v>
+        <v>88</v>
       </c>
       <c r="AG302" t="s" s="2">
         <v>75</v>
@@ -33196,21 +33190,21 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E303" s="2"/>
       <c r="F303" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G303" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H303" t="s" s="2">
         <v>74</v>
@@ -33222,15 +33216,17 @@
         <v>74</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>687</v>
+        <v>92</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="N303" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N303" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O303" s="2"/>
       <c r="P303" t="s" s="2">
         <v>74</v>
@@ -33267,71 +33263,75 @@
         <v>74</v>
       </c>
       <c r="AB303" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC303" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD303" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF303" t="s" s="2">
-        <v>686</v>
+        <v>98</v>
       </c>
       <c r="AG303" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH303" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI303" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ303" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E304" s="2"/>
       <c r="F304" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G304" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H304" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I304" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N304" s="2"/>
-      <c r="O304" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N304" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O304" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P304" t="s" s="2">
         <v>74</v>
       </c>
@@ -33379,38 +33379,38 @@
         <v>74</v>
       </c>
       <c r="AF304" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="AG304" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH304" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI304" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ304" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E305" s="2"/>
       <c r="F305" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G305" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H305" t="s" s="2">
         <v>74</v>
@@ -33422,17 +33422,15 @@
         <v>74</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>92</v>
+        <v>619</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N305" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="N305" s="2"/>
       <c r="O305" s="2"/>
       <c r="P305" t="s" s="2">
         <v>74</v>
@@ -33469,75 +33467,71 @@
         <v>74</v>
       </c>
       <c r="AB305" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC305" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD305" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF305" t="s" s="2">
-        <v>98</v>
+        <v>692</v>
       </c>
       <c r="AG305" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH305" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI305" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ305" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E306" s="2"/>
       <c r="F306" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G306" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H306" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I306" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J306" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>103</v>
+        <v>621</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N306" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O306" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="N306" s="2"/>
+      <c r="O306" s="2"/>
       <c r="P306" t="s" s="2">
         <v>74</v>
       </c>
@@ -33585,27 +33579,27 @@
         <v>74</v>
       </c>
       <c r="AF306" t="s" s="2">
-        <v>106</v>
+        <v>693</v>
       </c>
       <c r="AG306" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH306" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI306" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ306" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" t="s" s="2">
@@ -33628,13 +33622,13 @@
         <v>74</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>611</v>
+        <v>695</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>611</v>
+        <v>695</v>
       </c>
       <c r="N307" s="2"/>
       <c r="O307" s="2"/>
@@ -33685,7 +33679,7 @@
         <v>74</v>
       </c>
       <c r="AF307" t="s" s="2">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="AG307" t="s" s="2">
         <v>75</v>
@@ -33697,15 +33691,15 @@
         <v>74</v>
       </c>
       <c r="AJ307" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" t="s" s="2">
@@ -33728,13 +33722,13 @@
         <v>74</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>613</v>
+        <v>86</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>613</v>
+        <v>87</v>
       </c>
       <c r="N308" s="2"/>
       <c r="O308" s="2"/>
@@ -33785,7 +33779,7 @@
         <v>74</v>
       </c>
       <c r="AF308" t="s" s="2">
-        <v>692</v>
+        <v>88</v>
       </c>
       <c r="AG308" t="s" s="2">
         <v>75</v>
@@ -33802,21 +33796,21 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E309" s="2"/>
       <c r="F309" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G309" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H309" t="s" s="2">
         <v>74</v>
@@ -33828,15 +33822,17 @@
         <v>74</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>694</v>
+        <v>92</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="N309" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N309" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O309" s="2"/>
       <c r="P309" t="s" s="2">
         <v>74</v>
@@ -33873,71 +33869,75 @@
         <v>74</v>
       </c>
       <c r="AB309" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC309" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD309" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF309" t="s" s="2">
-        <v>693</v>
+        <v>98</v>
       </c>
       <c r="AG309" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH309" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI309" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ309" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E310" s="2"/>
       <c r="F310" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G310" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H310" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I310" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J310" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N310" s="2"/>
-      <c r="O310" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N310" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O310" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P310" t="s" s="2">
         <v>74</v>
       </c>
@@ -33985,38 +33985,38 @@
         <v>74</v>
       </c>
       <c r="AF310" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="AG310" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH310" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI310" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ310" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E311" s="2"/>
       <c r="F311" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G311" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H311" t="s" s="2">
         <v>74</v>
@@ -34028,17 +34028,15 @@
         <v>74</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>92</v>
+        <v>619</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N311" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="N311" s="2"/>
       <c r="O311" s="2"/>
       <c r="P311" t="s" s="2">
         <v>74</v>
@@ -34075,75 +34073,71 @@
         <v>74</v>
       </c>
       <c r="AB311" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC311" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD311" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF311" t="s" s="2">
-        <v>98</v>
+        <v>699</v>
       </c>
       <c r="AG311" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH311" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI311" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ311" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E312" s="2"/>
       <c r="F312" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G312" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H312" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I312" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J312" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>103</v>
+        <v>621</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N312" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O312" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="N312" s="2"/>
+      <c r="O312" s="2"/>
       <c r="P312" t="s" s="2">
         <v>74</v>
       </c>
@@ -34191,27 +34185,27 @@
         <v>74</v>
       </c>
       <c r="AF312" t="s" s="2">
-        <v>106</v>
+        <v>700</v>
       </c>
       <c r="AG312" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH312" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI312" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ312" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" t="s" s="2">
@@ -34234,13 +34228,13 @@
         <v>74</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>609</v>
+        <v>702</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>609</v>
+        <v>702</v>
       </c>
       <c r="N313" s="2"/>
       <c r="O313" s="2"/>
@@ -34291,7 +34285,7 @@
         <v>74</v>
       </c>
       <c r="AF313" t="s" s="2">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="AG313" t="s" s="2">
         <v>75</v>
@@ -34303,15 +34297,15 @@
         <v>74</v>
       </c>
       <c r="AJ313" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" t="s" s="2">
@@ -34334,13 +34328,13 @@
         <v>74</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>611</v>
+        <v>86</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>611</v>
+        <v>87</v>
       </c>
       <c r="N314" s="2"/>
       <c r="O314" s="2"/>
@@ -34391,7 +34385,7 @@
         <v>74</v>
       </c>
       <c r="AF314" t="s" s="2">
-        <v>699</v>
+        <v>88</v>
       </c>
       <c r="AG314" t="s" s="2">
         <v>75</v>
@@ -34408,21 +34402,21 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E315" s="2"/>
       <c r="F315" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G315" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H315" t="s" s="2">
         <v>74</v>
@@ -34434,15 +34428,17 @@
         <v>74</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>613</v>
+        <v>92</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N315" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N315" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O315" s="2"/>
       <c r="P315" t="s" s="2">
         <v>74</v>
@@ -34479,71 +34475,75 @@
         <v>74</v>
       </c>
       <c r="AB315" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC315" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD315" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF315" t="s" s="2">
-        <v>700</v>
+        <v>98</v>
       </c>
       <c r="AG315" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH315" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI315" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ315" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E316" s="2"/>
       <c r="F316" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G316" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H316" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I316" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J316" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>702</v>
+        <v>103</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="N316" s="2"/>
-      <c r="O316" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N316" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O316" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P316" t="s" s="2">
         <v>74</v>
       </c>
@@ -34591,27 +34591,27 @@
         <v>74</v>
       </c>
       <c r="AF316" t="s" s="2">
-        <v>701</v>
+        <v>106</v>
       </c>
       <c r="AG316" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH316" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI316" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ316" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" t="s" s="2">
@@ -34634,13 +34634,13 @@
         <v>74</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>86</v>
+        <v>617</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>87</v>
+        <v>617</v>
       </c>
       <c r="N317" s="2"/>
       <c r="O317" s="2"/>
@@ -34691,7 +34691,7 @@
         <v>74</v>
       </c>
       <c r="AF317" t="s" s="2">
-        <v>88</v>
+        <v>706</v>
       </c>
       <c r="AG317" t="s" s="2">
         <v>75</v>
@@ -34708,21 +34708,21 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E318" s="2"/>
       <c r="F318" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G318" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H318" t="s" s="2">
         <v>74</v>
@@ -34734,17 +34734,15 @@
         <v>74</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>92</v>
+        <v>619</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N318" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="N318" s="2"/>
       <c r="O318" s="2"/>
       <c r="P318" t="s" s="2">
         <v>74</v>
@@ -34781,75 +34779,71 @@
         <v>74</v>
       </c>
       <c r="AB318" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC318" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD318" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF318" t="s" s="2">
-        <v>98</v>
+        <v>707</v>
       </c>
       <c r="AG318" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH318" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI318" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ318" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E319" s="2"/>
       <c r="F319" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G319" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H319" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I319" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J319" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>103</v>
+        <v>621</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N319" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O319" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="N319" s="2"/>
+      <c r="O319" s="2"/>
       <c r="P319" t="s" s="2">
         <v>74</v>
       </c>
@@ -34897,27 +34891,27 @@
         <v>74</v>
       </c>
       <c r="AF319" t="s" s="2">
-        <v>106</v>
+        <v>708</v>
       </c>
       <c r="AG319" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH319" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI319" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ319" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" t="s" s="2">
@@ -34940,13 +34934,13 @@
         <v>74</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>609</v>
+        <v>710</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>609</v>
+        <v>710</v>
       </c>
       <c r="N320" s="2"/>
       <c r="O320" s="2"/>
@@ -34997,7 +34991,7 @@
         <v>74</v>
       </c>
       <c r="AF320" t="s" s="2">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="AG320" t="s" s="2">
         <v>75</v>
@@ -35009,15 +35003,15 @@
         <v>74</v>
       </c>
       <c r="AJ320" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" t="s" s="2">
@@ -35040,13 +35034,13 @@
         <v>74</v>
       </c>
       <c r="K321" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>611</v>
+        <v>86</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>611</v>
+        <v>87</v>
       </c>
       <c r="N321" s="2"/>
       <c r="O321" s="2"/>
@@ -35097,7 +35091,7 @@
         <v>74</v>
       </c>
       <c r="AF321" t="s" s="2">
-        <v>707</v>
+        <v>88</v>
       </c>
       <c r="AG321" t="s" s="2">
         <v>75</v>
@@ -35114,21 +35108,21 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E322" s="2"/>
       <c r="F322" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G322" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H322" t="s" s="2">
         <v>74</v>
@@ -35140,15 +35134,17 @@
         <v>74</v>
       </c>
       <c r="K322" t="s" s="2">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="L322" t="s" s="2">
-        <v>613</v>
+        <v>92</v>
       </c>
       <c r="M322" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N322" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N322" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O322" s="2"/>
       <c r="P322" t="s" s="2">
         <v>74</v>
@@ -35185,71 +35181,75 @@
         <v>74</v>
       </c>
       <c r="AB322" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC322" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD322" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE322" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF322" t="s" s="2">
-        <v>708</v>
+        <v>98</v>
       </c>
       <c r="AG322" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH322" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI322" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ322" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E323" s="2"/>
       <c r="F323" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G323" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H323" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I323" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J323" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K323" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L323" t="s" s="2">
-        <v>710</v>
+        <v>103</v>
       </c>
       <c r="M323" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="N323" s="2"/>
-      <c r="O323" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N323" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O323" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P323" t="s" s="2">
         <v>74</v>
       </c>
@@ -35297,27 +35297,27 @@
         <v>74</v>
       </c>
       <c r="AF323" t="s" s="2">
-        <v>709</v>
+        <v>106</v>
       </c>
       <c r="AG323" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH323" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI323" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ323" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" t="s" s="2">
@@ -35340,13 +35340,13 @@
         <v>74</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>86</v>
+        <v>617</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>87</v>
+        <v>617</v>
       </c>
       <c r="N324" s="2"/>
       <c r="O324" s="2"/>
@@ -35397,7 +35397,7 @@
         <v>74</v>
       </c>
       <c r="AF324" t="s" s="2">
-        <v>88</v>
+        <v>714</v>
       </c>
       <c r="AG324" t="s" s="2">
         <v>75</v>
@@ -35414,21 +35414,21 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E325" s="2"/>
       <c r="F325" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G325" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H325" t="s" s="2">
         <v>74</v>
@@ -35440,17 +35440,15 @@
         <v>74</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>92</v>
+        <v>619</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N325" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="N325" s="2"/>
       <c r="O325" s="2"/>
       <c r="P325" t="s" s="2">
         <v>74</v>
@@ -35487,75 +35485,71 @@
         <v>74</v>
       </c>
       <c r="AB325" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC325" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD325" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF325" t="s" s="2">
-        <v>98</v>
+        <v>715</v>
       </c>
       <c r="AG325" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH325" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI325" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ325" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E326" s="2"/>
       <c r="F326" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G326" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H326" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I326" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J326" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>103</v>
+        <v>621</v>
       </c>
       <c r="M326" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N326" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O326" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="N326" s="2"/>
+      <c r="O326" s="2"/>
       <c r="P326" t="s" s="2">
         <v>74</v>
       </c>
@@ -35603,27 +35597,27 @@
         <v>74</v>
       </c>
       <c r="AF326" t="s" s="2">
-        <v>106</v>
+        <v>716</v>
       </c>
       <c r="AG326" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH326" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI326" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ326" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
@@ -35646,13 +35640,13 @@
         <v>74</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>609</v>
+        <v>718</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>609</v>
+        <v>718</v>
       </c>
       <c r="N327" s="2"/>
       <c r="O327" s="2"/>
@@ -35703,7 +35697,7 @@
         <v>74</v>
       </c>
       <c r="AF327" t="s" s="2">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="AG327" t="s" s="2">
         <v>75</v>
@@ -35715,15 +35709,15 @@
         <v>74</v>
       </c>
       <c r="AJ327" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" t="s" s="2">
@@ -35746,13 +35740,13 @@
         <v>74</v>
       </c>
       <c r="K328" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>611</v>
+        <v>86</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>611</v>
+        <v>87</v>
       </c>
       <c r="N328" s="2"/>
       <c r="O328" s="2"/>
@@ -35803,7 +35797,7 @@
         <v>74</v>
       </c>
       <c r="AF328" t="s" s="2">
-        <v>715</v>
+        <v>88</v>
       </c>
       <c r="AG328" t="s" s="2">
         <v>75</v>
@@ -35820,21 +35814,21 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E329" s="2"/>
       <c r="F329" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G329" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H329" t="s" s="2">
         <v>74</v>
@@ -35846,15 +35840,17 @@
         <v>74</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>613</v>
+        <v>92</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N329" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N329" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O329" s="2"/>
       <c r="P329" t="s" s="2">
         <v>74</v>
@@ -35891,71 +35887,75 @@
         <v>74</v>
       </c>
       <c r="AB329" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC329" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD329" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF329" t="s" s="2">
-        <v>716</v>
+        <v>98</v>
       </c>
       <c r="AG329" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH329" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI329" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ329" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E330" s="2"/>
       <c r="F330" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G330" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H330" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I330" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J330" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>718</v>
+        <v>103</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="N330" s="2"/>
-      <c r="O330" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N330" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O330" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P330" t="s" s="2">
         <v>74</v>
       </c>
@@ -36003,27 +36003,27 @@
         <v>74</v>
       </c>
       <c r="AF330" t="s" s="2">
-        <v>717</v>
+        <v>106</v>
       </c>
       <c r="AG330" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH330" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI330" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ330" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" t="s" s="2">
@@ -36046,13 +36046,13 @@
         <v>74</v>
       </c>
       <c r="K331" t="s" s="2">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>86</v>
+        <v>617</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>87</v>
+        <v>617</v>
       </c>
       <c r="N331" s="2"/>
       <c r="O331" s="2"/>
@@ -36103,7 +36103,7 @@
         <v>74</v>
       </c>
       <c r="AF331" t="s" s="2">
-        <v>88</v>
+        <v>722</v>
       </c>
       <c r="AG331" t="s" s="2">
         <v>75</v>
@@ -36120,21 +36120,21 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E332" s="2"/>
       <c r="F332" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G332" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H332" t="s" s="2">
         <v>74</v>
@@ -36146,17 +36146,15 @@
         <v>74</v>
       </c>
       <c r="K332" t="s" s="2">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>92</v>
+        <v>619</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N332" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="N332" s="2"/>
       <c r="O332" s="2"/>
       <c r="P332" t="s" s="2">
         <v>74</v>
@@ -36193,75 +36191,71 @@
         <v>74</v>
       </c>
       <c r="AB332" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC332" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD332" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE332" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF332" t="s" s="2">
-        <v>98</v>
+        <v>723</v>
       </c>
       <c r="AG332" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH332" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI332" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ332" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E333" s="2"/>
       <c r="F333" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G333" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H333" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I333" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J333" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K333" t="s" s="2">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>103</v>
+        <v>621</v>
       </c>
       <c r="M333" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N333" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O333" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="N333" s="2"/>
+      <c r="O333" s="2"/>
       <c r="P333" t="s" s="2">
         <v>74</v>
       </c>
@@ -36309,27 +36303,27 @@
         <v>74</v>
       </c>
       <c r="AF333" t="s" s="2">
-        <v>106</v>
+        <v>724</v>
       </c>
       <c r="AG333" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH333" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI333" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ333" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" t="s" s="2">
@@ -36352,13 +36346,13 @@
         <v>74</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>723</v>
+        <v>81</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="N334" s="2"/>
       <c r="O334" s="2"/>
@@ -36409,7 +36403,7 @@
         <v>74</v>
       </c>
       <c r="AF334" t="s" s="2">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="AG334" t="s" s="2">
         <v>75</v>
@@ -36421,15 +36415,15 @@
         <v>74</v>
       </c>
       <c r="AJ334" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" t="s" s="2">
@@ -36452,13 +36446,13 @@
         <v>74</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>726</v>
+        <v>86</v>
       </c>
       <c r="M335" t="s" s="2">
-        <v>726</v>
+        <v>87</v>
       </c>
       <c r="N335" s="2"/>
       <c r="O335" s="2"/>
@@ -36509,7 +36503,7 @@
         <v>74</v>
       </c>
       <c r="AF335" t="s" s="2">
-        <v>725</v>
+        <v>88</v>
       </c>
       <c r="AG335" t="s" s="2">
         <v>75</v>
@@ -36521,26 +36515,26 @@
         <v>74</v>
       </c>
       <c r="AJ335" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E336" s="2"/>
       <c r="F336" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G336" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H336" t="s" s="2">
         <v>74</v>
@@ -36552,15 +36546,17 @@
         <v>74</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M336" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N336" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N336" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O336" s="2"/>
       <c r="P336" t="s" s="2">
         <v>74</v>
@@ -36597,43 +36593,43 @@
         <v>74</v>
       </c>
       <c r="AB336" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC336" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD336" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF336" t="s" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="AG336" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH336" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI336" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ336" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" t="s" s="2">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E337" s="2"/>
       <c r="F337" t="s" s="2">
@@ -36646,24 +36642,26 @@
         <v>74</v>
       </c>
       <c r="I337" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J337" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K337" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="N337" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="O337" s="2"/>
+      <c r="O337" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P337" t="s" s="2">
         <v>74</v>
       </c>
@@ -36699,19 +36697,19 @@
         <v>74</v>
       </c>
       <c r="AB337" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC337" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD337" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF337" t="s" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="AG337" t="s" s="2">
         <v>75</v>
@@ -36728,46 +36726,42 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E338" s="2"/>
       <c r="F338" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G338" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H338" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I338" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J338" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>91</v>
+        <v>731</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>103</v>
+        <v>732</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N338" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O338" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="N338" s="2"/>
+      <c r="O338" s="2"/>
       <c r="P338" t="s" s="2">
         <v>74</v>
       </c>
@@ -36815,27 +36809,27 @@
         <v>74</v>
       </c>
       <c r="AF338" t="s" s="2">
-        <v>106</v>
+        <v>730</v>
       </c>
       <c r="AG338" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH338" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI338" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ338" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" t="s" s="2">
@@ -36861,10 +36855,10 @@
         <v>81</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="N339" s="2"/>
       <c r="O339" s="2"/>
@@ -36915,7 +36909,7 @@
         <v>74</v>
       </c>
       <c r="AF339" t="s" s="2">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="AG339" t="s" s="2">
         <v>75</v>
@@ -36932,10 +36926,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" t="s" s="2">
@@ -37032,10 +37026,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" t="s" s="2">
@@ -37134,10 +37128,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" t="s" s="2">
@@ -37238,10 +37232,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" t="s" s="2">
@@ -37264,13 +37258,13 @@
         <v>74</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>736</v>
+        <v>81</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="N343" s="2"/>
       <c r="O343" s="2"/>
@@ -37321,7 +37315,7 @@
         <v>74</v>
       </c>
       <c r="AF343" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="AG343" t="s" s="2">
         <v>75</v>
@@ -37333,15 +37327,15 @@
         <v>74</v>
       </c>
       <c r="AJ343" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" t="s" s="2">
@@ -37364,13 +37358,13 @@
         <v>74</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>736</v>
+        <v>85</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>739</v>
+        <v>86</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>739</v>
+        <v>87</v>
       </c>
       <c r="N344" s="2"/>
       <c r="O344" s="2"/>
@@ -37421,7 +37415,7 @@
         <v>74</v>
       </c>
       <c r="AF344" t="s" s="2">
-        <v>738</v>
+        <v>88</v>
       </c>
       <c r="AG344" t="s" s="2">
         <v>75</v>
@@ -37438,21 +37432,21 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E345" s="2"/>
       <c r="F345" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G345" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H345" t="s" s="2">
         <v>74</v>
@@ -37464,15 +37458,17 @@
         <v>74</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>736</v>
+        <v>91</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>741</v>
+        <v>92</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>741</v>
-      </c>
-      <c r="N345" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N345" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O345" s="2"/>
       <c r="P345" t="s" s="2">
         <v>74</v>
@@ -37509,31 +37505,31 @@
         <v>74</v>
       </c>
       <c r="AB345" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC345" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD345" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE345" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF345" t="s" s="2">
-        <v>740</v>
+        <v>98</v>
       </c>
       <c r="AG345" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH345" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI345" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ345" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="346">
@@ -37545,35 +37541,39 @@
       </c>
       <c r="C346" s="2"/>
       <c r="D346" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E346" s="2"/>
       <c r="F346" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G346" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H346" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I346" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J346" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K346" t="s" s="2">
-        <v>736</v>
+        <v>91</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>743</v>
+        <v>103</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>743</v>
-      </c>
-      <c r="N346" s="2"/>
-      <c r="O346" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N346" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O346" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P346" t="s" s="2">
         <v>74</v>
       </c>
@@ -37621,27 +37621,27 @@
         <v>74</v>
       </c>
       <c r="AF346" t="s" s="2">
-        <v>742</v>
+        <v>106</v>
       </c>
       <c r="AG346" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH346" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI346" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ346" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" t="s" s="2">
@@ -37664,7 +37664,7 @@
         <v>74</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>144</v>
+        <v>744</v>
       </c>
       <c r="L347" t="s" s="2">
         <v>745</v>
@@ -37721,7 +37721,7 @@
         <v>74</v>
       </c>
       <c r="AF347" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AG347" t="s" s="2">
         <v>75</v>
@@ -37764,7 +37764,7 @@
         <v>74</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>81</v>
+        <v>744</v>
       </c>
       <c r="L348" t="s" s="2">
         <v>747</v>
@@ -37833,7 +37833,7 @@
         <v>74</v>
       </c>
       <c r="AJ348" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="349">
@@ -37864,13 +37864,13 @@
         <v>74</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>85</v>
+        <v>744</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>86</v>
+        <v>749</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>87</v>
+        <v>749</v>
       </c>
       <c r="N349" s="2"/>
       <c r="O349" s="2"/>
@@ -37921,7 +37921,7 @@
         <v>74</v>
       </c>
       <c r="AF349" t="s" s="2">
-        <v>88</v>
+        <v>748</v>
       </c>
       <c r="AG349" t="s" s="2">
         <v>75</v>
@@ -37938,21 +37938,21 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E350" s="2"/>
       <c r="F350" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G350" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H350" t="s" s="2">
         <v>74</v>
@@ -37964,17 +37964,15 @@
         <v>74</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>91</v>
+        <v>744</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>92</v>
+        <v>751</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N350" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="N350" s="2"/>
       <c r="O350" s="2"/>
       <c r="P350" t="s" s="2">
         <v>74</v>
@@ -38011,75 +38009,71 @@
         <v>74</v>
       </c>
       <c r="AB350" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC350" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD350" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF350" t="s" s="2">
-        <v>98</v>
+        <v>750</v>
       </c>
       <c r="AG350" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH350" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI350" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ350" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E351" s="2"/>
       <c r="F351" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G351" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H351" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I351" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J351" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>103</v>
+        <v>753</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N351" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O351" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="N351" s="2"/>
+      <c r="O351" s="2"/>
       <c r="P351" t="s" s="2">
         <v>74</v>
       </c>
@@ -38127,27 +38121,27 @@
         <v>74</v>
       </c>
       <c r="AF351" t="s" s="2">
-        <v>106</v>
+        <v>752</v>
       </c>
       <c r="AG351" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH351" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI351" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ351" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" t="s" s="2">
@@ -38170,13 +38164,13 @@
         <v>74</v>
       </c>
       <c r="K352" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="N352" s="2"/>
       <c r="O352" s="2"/>
@@ -38227,7 +38221,7 @@
         <v>74</v>
       </c>
       <c r="AF352" t="s" s="2">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="AG352" t="s" s="2">
         <v>75</v>
@@ -38239,15 +38233,15 @@
         <v>74</v>
       </c>
       <c r="AJ352" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" t="s" s="2">
@@ -38258,7 +38252,7 @@
         <v>75</v>
       </c>
       <c r="G353" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H353" t="s" s="2">
         <v>74</v>
@@ -38270,13 +38264,13 @@
         <v>74</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>736</v>
+        <v>85</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>754</v>
+        <v>86</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>754</v>
+        <v>87</v>
       </c>
       <c r="N353" s="2"/>
       <c r="O353" s="2"/>
@@ -38327,13 +38321,13 @@
         <v>74</v>
       </c>
       <c r="AF353" t="s" s="2">
-        <v>753</v>
+        <v>88</v>
       </c>
       <c r="AG353" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH353" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI353" t="s" s="2">
         <v>74</v>
@@ -38344,21 +38338,21 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E354" s="2"/>
       <c r="F354" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G354" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H354" t="s" s="2">
         <v>74</v>
@@ -38370,15 +38364,17 @@
         <v>74</v>
       </c>
       <c r="K354" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>756</v>
+        <v>92</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>756</v>
-      </c>
-      <c r="N354" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N354" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O354" s="2"/>
       <c r="P354" t="s" s="2">
         <v>74</v>
@@ -38415,71 +38411,75 @@
         <v>74</v>
       </c>
       <c r="AB354" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC354" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD354" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE354" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF354" t="s" s="2">
-        <v>755</v>
+        <v>98</v>
       </c>
       <c r="AG354" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH354" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI354" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ354" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E355" s="2"/>
       <c r="F355" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G355" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H355" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I355" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J355" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K355" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N355" s="2"/>
-      <c r="O355" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N355" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O355" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P355" t="s" s="2">
         <v>74</v>
       </c>
@@ -38527,38 +38527,38 @@
         <v>74</v>
       </c>
       <c r="AF355" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="AG355" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH355" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI355" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ355" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E356" s="2"/>
       <c r="F356" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G356" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H356" t="s" s="2">
         <v>74</v>
@@ -38570,17 +38570,15 @@
         <v>74</v>
       </c>
       <c r="K356" t="s" s="2">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>92</v>
+        <v>760</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N356" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="N356" s="2"/>
       <c r="O356" s="2"/>
       <c r="P356" t="s" s="2">
         <v>74</v>
@@ -38617,43 +38615,43 @@
         <v>74</v>
       </c>
       <c r="AB356" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC356" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AD356" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AF356" t="s" s="2">
-        <v>98</v>
+        <v>759</v>
       </c>
       <c r="AG356" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH356" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI356" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ356" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E357" s="2"/>
       <c r="F357" t="s" s="2">
@@ -38666,26 +38664,22 @@
         <v>74</v>
       </c>
       <c r="I357" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="J357" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>91</v>
+        <v>744</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>103</v>
+        <v>762</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N357" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O357" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="N357" s="2"/>
+      <c r="O357" s="2"/>
       <c r="P357" t="s" s="2">
         <v>74</v>
       </c>
@@ -38733,7 +38727,7 @@
         <v>74</v>
       </c>
       <c r="AF357" t="s" s="2">
-        <v>106</v>
+        <v>761</v>
       </c>
       <c r="AG357" t="s" s="2">
         <v>75</v>
@@ -38745,15 +38739,15 @@
         <v>74</v>
       </c>
       <c r="AJ357" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" t="s" s="2">
@@ -38776,13 +38770,13 @@
         <v>74</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="N358" s="2"/>
       <c r="O358" s="2"/>
@@ -38833,7 +38827,7 @@
         <v>74</v>
       </c>
       <c r="AF358" t="s" s="2">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="AG358" t="s" s="2">
         <v>75</v>
@@ -38845,15 +38839,15 @@
         <v>74</v>
       </c>
       <c r="AJ358" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" t="s" s="2">
@@ -38876,13 +38870,13 @@
         <v>74</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>763</v>
+        <v>86</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>763</v>
+        <v>87</v>
       </c>
       <c r="N359" s="2"/>
       <c r="O359" s="2"/>
@@ -38933,7 +38927,7 @@
         <v>74</v>
       </c>
       <c r="AF359" t="s" s="2">
-        <v>762</v>
+        <v>88</v>
       </c>
       <c r="AG359" t="s" s="2">
         <v>75</v>
@@ -38950,14 +38944,14 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C360" s="2"/>
       <c r="D360" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E360" s="2"/>
       <c r="F360" t="s" s="2">
@@ -38976,15 +38970,17 @@
         <v>74</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>765</v>
+        <v>92</v>
       </c>
       <c r="M360" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="N360" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N360" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O360" s="2"/>
       <c r="P360" t="s" s="2">
         <v>74</v>
@@ -39021,19 +39017,19 @@
         <v>74</v>
       </c>
       <c r="AB360" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC360" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AD360" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AF360" t="s" s="2">
-        <v>764</v>
+        <v>98</v>
       </c>
       <c r="AG360" t="s" s="2">
         <v>75</v>
@@ -39045,47 +39041,51 @@
         <v>74</v>
       </c>
       <c r="AJ360" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E361" s="2"/>
       <c r="F361" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G361" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H361" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I361" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="J361" t="s" s="2">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K361" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>767</v>
+        <v>103</v>
       </c>
       <c r="M361" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="N361" s="2"/>
-      <c r="O361" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N361" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="O361" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P361" t="s" s="2">
         <v>74</v>
       </c>
@@ -39133,19 +39133,19 @@
         <v>74</v>
       </c>
       <c r="AF361" t="s" s="2">
-        <v>766</v>
+        <v>106</v>
       </c>
       <c r="AG361" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH361" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI361" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ361" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="362">
@@ -39164,7 +39164,7 @@
         <v>75</v>
       </c>
       <c r="G362" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H362" t="s" s="2">
         <v>74</v>
@@ -39239,7 +39239,7 @@
         <v>75</v>
       </c>
       <c r="AH362" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI362" t="s" s="2">
         <v>74</v>
@@ -39276,7 +39276,7 @@
         <v>74</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="L363" t="s" s="2">
         <v>771</v>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Minimum Dataset (MDS) Logical Model</t>
+    <t>RS Minimum Dataset (MDS) Logical Model</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Abstract, sectioned logical model for the PH Road Safety MDS covering incident, patient, encounter, clinical, vitals, injuries, evidence/documents, workflow, and finance. Elements mirror the CSV rows; mappings point to target FHIR elements for subsequent profiling.</t>
+    <t>Abstract, sectioned logical model for the PH RS MDS covering incident, patient, encounter, clinical, vitals, injuries, evidence/documents, workflow, and finance. Elements mirror the CSV rows; mappings point to target FHIR elements for subsequent profiling.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>RS Minimum Dataset (MDS) Logical Model</t>
+    <t>Road Safety Minimum Dataset (MDS) Logical Model</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Abstract, sectioned logical model for the PH RS MDS covering incident, patient, encounter, clinical, vitals, injuries, evidence/documents, workflow, and finance. Elements mirror the CSV rows; mappings point to target FHIR elements for subsequent profiling.</t>
+    <t>Abstract, sectioned logical model for the PH Road Safety MDS covering incident, patient, encounter, clinical, vitals, injuries, evidence/documents, workflow, and finance. Elements mirror the CSV rows; mappings point to target FHIR elements for subsequent profiling.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety Minimum Dataset (MDS) Logical Model</t>
+    <t>RS Minimum Dataset (MDS) Logical Model</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Abstract, sectioned logical model for the PH Road Safety MDS covering incident, patient, encounter, clinical, vitals, injuries, evidence/documents, workflow, and finance. Elements mirror the CSV rows; mappings point to target FHIR elements for subsequent profiling.</t>
+    <t>Abstract, sectioned logical model for the PH RS MDS covering incident, patient, encounter, clinical, vitals, injuries, evidence/documents, workflow, and finance. Elements mirror the CSV rows; mappings point to target FHIR elements for subsequent profiling.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ph-road-safety-logical-model.xlsx
+++ b/StructureDefinition-ph-road-safety-logical-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
